--- a/biology/Zoologie/Colombe_de_Cassin/Colombe_de_Cassin.xlsx
+++ b/biology/Zoologie/Colombe_de_Cassin/Colombe_de_Cassin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptotila cassinii
 La Colombe de Cassin (Leptotila cassinii) est une espèce d’oiseaux appartenant à la famille des Columbidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 24 cm de longueur. Son plumage est dans l'ensemble gris mais teinté de chamois aux ailes. Chez certaines sous-espèces, la calotte et la nuque sont colorés de roux[1]. Cette espèce ressemble beaucoup à la Colombe de Verreaux mais est un peu plus petite, présente des cercles oculaires rouges (au lieu de bleus) et moins de blanc à l'extrémité des rectrices externes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 24 cm de longueur. Son plumage est dans l'ensemble gris mais teinté de chamois aux ailes. Chez certaines sous-espèces, la calotte et la nuque sont colorés de roux. Cette espèce ressemble beaucoup à la Colombe de Verreaux mais est un peu plus petite, présente des cercles oculaires rouges (au lieu de bleus) et moins de blanc à l'extrémité des rectrices externes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend de l'extrême sud-est du Mexique au nord-ouest de la Colombie.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les forêts, les jardins et les plantations.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit solitaire ou en couple, parfois en compagnie de la Colombe de Verreaux.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 11.1, 2021) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Leptotila cassinii cerviniventris, Sclater, PL &amp; Salvin, 1868	;
